--- a/5. Student Level Prediction Using Machine Learning/student_grade_predictor/feature_encoding_info.xlsx
+++ b/5. Student Level Prediction Using Machine Learning/student_grade_predictor/feature_encoding_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Machine_Learning_Projects\5. Student Level Prediction Using Machine Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Machine_Learning_Projects\5. Student Level Prediction Using Machine Learning\student_grade_predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9426F3E-1F18-4327-A4CF-A1002B204CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F89DF72-A717-49D5-BFCC-EAE35FDF8A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,7 +137,7 @@
     <t>Year System</t>
   </si>
   <si>
-    <t>Age</t>
+    <t>Age_as_of_Academic_Year_1718</t>
   </si>
 </sst>
 </file>
@@ -506,12 +506,12 @@
   <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C55" sqref="A1:C55"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
   </cols>
